--- a/grupos/1DV - Estadisticos 20211.xlsx
+++ b/grupos/1DV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="134">
   <si>
     <t>Materia</t>
   </si>
@@ -911,7 +911,7 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -965,7 +965,7 @@
         <v>-1</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V4">
         <v>-1</v>
@@ -985,22 +985,22 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1039,22 +1039,22 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V5">
         <v>6</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X5">
         <v>10</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1062,22 +1062,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1116,22 +1116,22 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V6">
         <v>7</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X6">
         <v>8</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1139,22 +1139,22 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1193,22 +1193,22 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V7">
         <v>9</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X7">
         <v>8</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1216,22 +1216,22 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1270,22 +1270,22 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V8">
         <v>6</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X8">
         <v>10</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1293,10 +1293,10 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1308,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1347,10 +1347,10 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V9">
         <v>7</v>
@@ -1362,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1370,22 +1370,22 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1424,22 +1424,22 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V10">
         <v>9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X10">
         <v>10</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1447,10 +1447,10 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1501,10 +1501,10 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V11">
         <v>6</v>
@@ -1524,22 +1524,22 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1578,22 +1578,22 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V12">
         <v>6</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X12">
         <v>8</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1601,22 +1601,22 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1655,22 +1655,22 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V13">
         <v>8</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X13">
         <v>10</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1678,10 +1678,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -1732,10 +1732,10 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V14">
         <v>-1</v>
@@ -1758,19 +1758,19 @@
         <v>-1</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1812,19 +1812,19 @@
         <v>-1</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V15">
         <v>7</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X15">
         <v>10</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1835,7 +1835,7 @@
         <v>-1</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1889,7 +1889,7 @@
         <v>-1</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V16">
         <v>-1</v>
@@ -1909,7 +1909,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1918,13 +1918,13 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1963,7 +1963,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U17">
         <v>-1</v>
@@ -1972,13 +1972,13 @@
         <v>6</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X17">
         <v>8</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1986,22 +1986,22 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>8</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2040,22 +2040,22 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V18">
         <v>9</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X18">
         <v>8</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2063,22 +2063,22 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2117,22 +2117,22 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V19">
         <v>7</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X19">
         <v>10</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2140,22 +2140,22 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>-1</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2194,22 +2194,22 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V20">
         <v>-1</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X20">
         <v>8</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2217,22 +2217,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2271,22 +2271,22 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V21">
         <v>7</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X21">
         <v>10</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2297,7 +2297,7 @@
         <v>-1</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -2351,7 +2351,7 @@
         <v>-1</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V22">
         <v>6</v>
@@ -2374,7 +2374,7 @@
         <v>-1</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -2392,7 +2392,7 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2403,7 +2403,7 @@
         <v>-1</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -2457,7 +2457,7 @@
         <v>-1</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V24">
         <v>-1</v>
@@ -2477,22 +2477,22 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2531,22 +2531,22 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V25">
         <v>8</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X25">
         <v>10</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2554,22 +2554,22 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>10</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>10</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2608,22 +2608,22 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V26">
         <v>10</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X26">
         <v>10</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2631,22 +2631,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>10</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2685,22 +2685,22 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V27">
         <v>9</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X27">
         <v>10</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2708,22 +2708,22 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>6</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2762,22 +2762,22 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V28">
         <v>6</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X28">
         <v>10</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2788,7 +2788,7 @@
         <v>-1</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>-1</v>
@@ -2842,7 +2842,7 @@
         <v>-1</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V29">
         <v>-1</v>
@@ -2865,7 +2865,7 @@
         <v>-1</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -2919,7 +2919,7 @@
         <v>-1</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V30">
         <v>6</v>
@@ -2942,7 +2942,7 @@
         <v>-1</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -2996,7 +2996,7 @@
         <v>-1</v>
       </c>
       <c r="U31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V31">
         <v>6</v>
@@ -3076,27 +3076,30 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>8.699999999999999</v>
+      </c>
       <c r="I2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -3105,80 +3108,89 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>32.14</v>
+      </c>
+      <c r="H3">
+        <v>7.8</v>
       </c>
       <c r="I3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>68.97</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>7.7</v>
+      </c>
       <c r="I4">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>7.1</v>
+      </c>
       <c r="I5">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7195,7 +7207,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7230,22 +7242,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920275</v>
+        <v>21330051920121</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -7253,24 +7265,139 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
+        <v>21330051920121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>20330051920275</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
         <v>124</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/1DV - Estadisticos 20211.xlsx
+++ b/grupos/1DV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="134">
   <si>
     <t>Materia</t>
   </si>
@@ -197,39 +197,132 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>MONT</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>MOSTRANZO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>ZALAVA</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>CAPORAL</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>CARLOS URIEL</t>
+  </si>
+  <si>
+    <t>DIEGO DE JESUS</t>
+  </si>
+  <si>
+    <t>DIANA IRAIS</t>
+  </si>
+  <si>
+    <t>NATALIE</t>
+  </si>
+  <si>
+    <t>CRISTIAN FERMIN</t>
+  </si>
+  <si>
+    <t>LOGAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>PAUL ADRIAN</t>
+  </si>
+  <si>
+    <t>IKER XAVIER</t>
+  </si>
+  <si>
+    <t>THANIA CRISTAL</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CESAR DANIEL</t>
+  </si>
+  <si>
+    <t>MELANY NARAYANA</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
     <t>CERVANTES</t>
   </si>
   <si>
     <t>CERON</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
     <t>DOMINGUEZ</t>
   </si>
   <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>LIBRADO</t>
   </si>
   <si>
@@ -239,18 +332,6 @@
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MARIN</t>
-  </si>
-  <si>
-    <t>MONT</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>MOSTRANZO</t>
-  </si>
-  <si>
     <t>QUERO</t>
   </si>
   <si>
@@ -263,63 +344,27 @@
     <t>RIVERA</t>
   </si>
   <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>ZALAVA</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>TZOMPAXTLE</t>
   </si>
   <si>
-    <t>GARNICA</t>
-  </si>
-  <si>
     <t>MARCELINO</t>
   </si>
   <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
     <t>VILLA</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>CAPORAL</t>
-  </si>
-  <si>
     <t>CORONADO</t>
   </si>
   <si>
     <t>MARIA</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
     <t>OCHOA</t>
   </si>
   <si>
@@ -335,12 +380,6 @@
     <t>ARELLANO</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>CARLOS URIEL</t>
-  </si>
-  <si>
     <t>KAREN ITZEL</t>
   </si>
   <si>
@@ -353,30 +392,12 @@
     <t>MARIA JOSE</t>
   </si>
   <si>
-    <t>DIEGO DE JESUS</t>
-  </si>
-  <si>
     <t>MARILYN</t>
   </si>
   <si>
-    <t>DIANA IRAIS</t>
-  </si>
-  <si>
     <t>GAEL</t>
   </si>
   <si>
-    <t>NATALIE</t>
-  </si>
-  <si>
-    <t>CRISTIAN FERMIN</t>
-  </si>
-  <si>
-    <t>LOGAN FRANCISCO</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
     <t>LIZBETH</t>
   </si>
   <si>
@@ -386,18 +407,6 @@
     <t>ZABDIEL</t>
   </si>
   <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>PAUL ADRIAN</t>
-  </si>
-  <si>
-    <t>IKER XAVIER</t>
-  </si>
-  <si>
-    <t>THANIA CRISTAL</t>
-  </si>
-  <si>
     <t>DANIEL OCTAVIO</t>
   </si>
   <si>
@@ -411,15 +420,6 @@
   </si>
   <si>
     <t>GABRIELA DENISSE</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>CESAR DANIEL</t>
-  </si>
-  <si>
-    <t>MELANY NARAYANA</t>
   </si>
 </sst>
 </file>
@@ -3264,7 +3264,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3302,10 +3302,10 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3322,10 +3322,10 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -3342,10 +3342,10 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -3362,16 +3362,16 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3382,50 +3382,50 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21330051920110</v>
+        <v>21330051920115</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
         <v>84</v>
       </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>21330051920111</v>
+        <v>21330051920117</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -3436,76 +3436,76 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21330051920111</v>
+        <v>21330051920117</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21330051920111</v>
+        <v>21330051920120</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21330051920111</v>
+        <v>21330051920120</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21330051920111</v>
+        <v>21330051920120</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -3516,36 +3516,36 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>21330051920111</v>
+        <v>21330051920121</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21330051920112</v>
+        <v>21330051920391</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -3556,16 +3556,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>21330051920112</v>
+        <v>21330051920391</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>21330051920112</v>
+        <v>21330051920391</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -3596,116 +3596,116 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>21330051920112</v>
+        <v>21330051920391</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>21330051920112</v>
+        <v>21330051920391</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>21330051920112</v>
+        <v>21330051920122</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>21330051920113</v>
+        <v>21330051920126</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>21330051920113</v>
+        <v>21330051920127</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21330051920113</v>
+        <v>21330051920127</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -3716,76 +3716,76 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21330051920113</v>
+        <v>21330051920127</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>21330051920113</v>
+        <v>21330051920127</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>21330051920113</v>
+        <v>20330051920275</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>21330051920114</v>
+        <v>21330051920128</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -3796,16 +3796,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>21330051920114</v>
+        <v>21330051920128</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -3816,16 +3816,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>21330051920114</v>
+        <v>21330051920128</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -3836,236 +3836,236 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>21330051920114</v>
+        <v>21330051920128</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>21330051920114</v>
+        <v>21330051920128</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>21330051920114</v>
+        <v>20330051920152</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>21330051920115</v>
+        <v>20330051920152</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>21330051920115</v>
+        <v>20330051920152</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>21330051920115</v>
+        <v>20330051920152</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>21330051920115</v>
+        <v>20330051920152</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>21330051920115</v>
+        <v>21330051920133</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>21330051920115</v>
+        <v>21330051920133</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>21330051920116</v>
+        <v>21330051920133</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>21330051920116</v>
+        <v>21330051920134</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21330051920116</v>
+        <v>21330051920134</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -4076,2603 +4076,41 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>21330051920116</v>
+        <v>21330051920134</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>21330051920116</v>
+        <v>21330051920134</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>21330051920116</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>21330051920117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>21330051920117</v>
-      </c>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>21330051920117</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>21330051920117</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>21330051920117</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>21330051920117</v>
-      </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>21330051920118</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>21330051920118</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>21330051920118</v>
-      </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>21330051920118</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>21330051920118</v>
-      </c>
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>21330051920118</v>
-      </c>
-      <c r="B55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>21330051920119</v>
-      </c>
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>21330051920119</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>21330051920119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>21330051920119</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>21330051920119</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>21330051920119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>21330051920120</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>21330051920120</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>21330051920120</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>21330051920120</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>21330051920120</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>21330051920120</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>21330051920121</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" t="s">
-        <v>116</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>21330051920121</v>
-      </c>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>21330051920121</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" t="s">
-        <v>116</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>21330051920121</v>
-      </c>
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>21330051920121</v>
-      </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>21330051920121</v>
-      </c>
-      <c r="B73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" t="s">
-        <v>116</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>21330051920391</v>
-      </c>
-      <c r="B74" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" t="s">
-        <v>117</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>21330051920391</v>
-      </c>
-      <c r="B75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" t="s">
-        <v>117</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>21330051920391</v>
-      </c>
-      <c r="B76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>21330051920391</v>
-      </c>
-      <c r="B77" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" t="s">
-        <v>117</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>21330051920391</v>
-      </c>
-      <c r="B78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" t="s">
-        <v>117</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>21330051920391</v>
-      </c>
-      <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" t="s">
-        <v>117</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>21330051920122</v>
-      </c>
-      <c r="B80" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D80" t="s">
-        <v>118</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>21330051920122</v>
-      </c>
-      <c r="B81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" t="s">
-        <v>67</v>
-      </c>
-      <c r="D81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>21330051920122</v>
-      </c>
-      <c r="B82" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" t="s">
-        <v>67</v>
-      </c>
-      <c r="D82" t="s">
-        <v>118</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>21330051920122</v>
-      </c>
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" t="s">
-        <v>118</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>21330051920122</v>
-      </c>
-      <c r="B84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" t="s">
-        <v>67</v>
-      </c>
-      <c r="D84" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>21330051920122</v>
-      </c>
-      <c r="B85" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" t="s">
-        <v>118</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>21330051920123</v>
-      </c>
-      <c r="B86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" t="s">
-        <v>95</v>
-      </c>
-      <c r="D86" t="s">
-        <v>119</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>21330051920123</v>
-      </c>
-      <c r="B87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D87" t="s">
-        <v>119</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>21330051920123</v>
-      </c>
-      <c r="B88" t="s">
-        <v>70</v>
-      </c>
-      <c r="C88" t="s">
-        <v>95</v>
-      </c>
-      <c r="D88" t="s">
-        <v>119</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>21330051920123</v>
-      </c>
-      <c r="B89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C89" t="s">
-        <v>95</v>
-      </c>
-      <c r="D89" t="s">
-        <v>119</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>21330051920123</v>
-      </c>
-      <c r="B90" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" t="s">
-        <v>95</v>
-      </c>
-      <c r="D90" t="s">
-        <v>119</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>21330051920123</v>
-      </c>
-      <c r="B91" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91" t="s">
-        <v>119</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>21330051920124</v>
-      </c>
-      <c r="B92" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" t="s">
-        <v>96</v>
-      </c>
-      <c r="D92" t="s">
-        <v>120</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>21330051920124</v>
-      </c>
-      <c r="B93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" t="s">
-        <v>120</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>21330051920124</v>
-      </c>
-      <c r="B94" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>21330051920124</v>
-      </c>
-      <c r="B95" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" t="s">
-        <v>120</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>21330051920124</v>
-      </c>
-      <c r="B96" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" t="s">
-        <v>120</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>21330051920124</v>
-      </c>
-      <c r="B97" t="s">
-        <v>71</v>
-      </c>
-      <c r="C97" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" t="s">
-        <v>120</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>21330051920125</v>
-      </c>
-      <c r="B98" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" t="s">
-        <v>121</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>21330051920125</v>
-      </c>
-      <c r="B99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" t="s">
-        <v>66</v>
-      </c>
-      <c r="D99" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>21330051920125</v>
-      </c>
-      <c r="B100" t="s">
-        <v>72</v>
-      </c>
-      <c r="C100" t="s">
-        <v>66</v>
-      </c>
-      <c r="D100" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>21330051920125</v>
-      </c>
-      <c r="B101" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" t="s">
-        <v>66</v>
-      </c>
-      <c r="D101" t="s">
-        <v>121</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>21330051920125</v>
-      </c>
-      <c r="B102" t="s">
-        <v>72</v>
-      </c>
-      <c r="C102" t="s">
-        <v>66</v>
-      </c>
-      <c r="D102" t="s">
-        <v>121</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>21330051920125</v>
-      </c>
-      <c r="B103" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" t="s">
-        <v>66</v>
-      </c>
-      <c r="D103" t="s">
-        <v>121</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>21330051920126</v>
-      </c>
-      <c r="B104" t="s">
-        <v>73</v>
-      </c>
-      <c r="C104" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" t="s">
-        <v>122</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>21330051920126</v>
-      </c>
-      <c r="B105" t="s">
-        <v>73</v>
-      </c>
-      <c r="C105" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105" t="s">
-        <v>122</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>21330051920126</v>
-      </c>
-      <c r="B106" t="s">
-        <v>73</v>
-      </c>
-      <c r="C106" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" t="s">
-        <v>122</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>21330051920126</v>
-      </c>
-      <c r="B107" t="s">
-        <v>73</v>
-      </c>
-      <c r="C107" t="s">
-        <v>97</v>
-      </c>
-      <c r="D107" t="s">
-        <v>122</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>21330051920126</v>
-      </c>
-      <c r="B108" t="s">
-        <v>73</v>
-      </c>
-      <c r="C108" t="s">
-        <v>97</v>
-      </c>
-      <c r="D108" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>21330051920126</v>
-      </c>
-      <c r="B109" t="s">
-        <v>73</v>
-      </c>
-      <c r="C109" t="s">
-        <v>97</v>
-      </c>
-      <c r="D109" t="s">
-        <v>122</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>21330051920127</v>
-      </c>
-      <c r="B110" t="s">
-        <v>74</v>
-      </c>
-      <c r="C110" t="s">
-        <v>98</v>
-      </c>
-      <c r="D110" t="s">
-        <v>123</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>21330051920127</v>
-      </c>
-      <c r="B111" t="s">
-        <v>74</v>
-      </c>
-      <c r="C111" t="s">
-        <v>98</v>
-      </c>
-      <c r="D111" t="s">
-        <v>123</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>21330051920127</v>
-      </c>
-      <c r="B112" t="s">
-        <v>74</v>
-      </c>
-      <c r="C112" t="s">
-        <v>98</v>
-      </c>
-      <c r="D112" t="s">
-        <v>123</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>21330051920127</v>
-      </c>
-      <c r="B113" t="s">
-        <v>74</v>
-      </c>
-      <c r="C113" t="s">
-        <v>98</v>
-      </c>
-      <c r="D113" t="s">
-        <v>123</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>21330051920127</v>
-      </c>
-      <c r="B114" t="s">
-        <v>74</v>
-      </c>
-      <c r="C114" t="s">
-        <v>98</v>
-      </c>
-      <c r="D114" t="s">
-        <v>123</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>21330051920127</v>
-      </c>
-      <c r="B115" t="s">
-        <v>74</v>
-      </c>
-      <c r="C115" t="s">
-        <v>98</v>
-      </c>
-      <c r="D115" t="s">
-        <v>123</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920275</v>
-      </c>
-      <c r="B116" t="s">
-        <v>75</v>
-      </c>
-      <c r="C116" t="s">
-        <v>66</v>
-      </c>
-      <c r="D116" t="s">
-        <v>124</v>
-      </c>
-      <c r="E116" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920275</v>
-      </c>
-      <c r="B117" t="s">
-        <v>75</v>
-      </c>
-      <c r="C117" t="s">
-        <v>66</v>
-      </c>
-      <c r="D117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>21330051920128</v>
-      </c>
-      <c r="B118" t="s">
-        <v>76</v>
-      </c>
-      <c r="C118" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118" t="s">
-        <v>125</v>
-      </c>
-      <c r="E118" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>21330051920128</v>
-      </c>
-      <c r="B119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C119" t="s">
-        <v>99</v>
-      </c>
-      <c r="D119" t="s">
-        <v>125</v>
-      </c>
-      <c r="E119" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>21330051920128</v>
-      </c>
-      <c r="B120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C120" t="s">
-        <v>99</v>
-      </c>
-      <c r="D120" t="s">
-        <v>125</v>
-      </c>
-      <c r="E120" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>21330051920128</v>
-      </c>
-      <c r="B121" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" t="s">
-        <v>99</v>
-      </c>
-      <c r="D121" t="s">
-        <v>125</v>
-      </c>
-      <c r="E121" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>21330051920128</v>
-      </c>
-      <c r="B122" t="s">
-        <v>76</v>
-      </c>
-      <c r="C122" t="s">
-        <v>99</v>
-      </c>
-      <c r="D122" t="s">
-        <v>125</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>21330051920128</v>
-      </c>
-      <c r="B123" t="s">
-        <v>76</v>
-      </c>
-      <c r="C123" t="s">
-        <v>99</v>
-      </c>
-      <c r="D123" t="s">
-        <v>125</v>
-      </c>
-      <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>21330051920129</v>
-      </c>
-      <c r="C124" t="s">
-        <v>100</v>
-      </c>
-      <c r="D124" t="s">
-        <v>126</v>
-      </c>
-      <c r="E124" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>21330051920129</v>
-      </c>
-      <c r="C125" t="s">
-        <v>100</v>
-      </c>
-      <c r="D125" t="s">
-        <v>126</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>21330051920129</v>
-      </c>
-      <c r="C126" t="s">
-        <v>100</v>
-      </c>
-      <c r="D126" t="s">
-        <v>126</v>
-      </c>
-      <c r="E126" t="s">
-        <v>5</v>
-      </c>
-      <c r="F126" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>21330051920129</v>
-      </c>
-      <c r="C127" t="s">
-        <v>100</v>
-      </c>
-      <c r="D127" t="s">
-        <v>126</v>
-      </c>
-      <c r="E127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>21330051920129</v>
-      </c>
-      <c r="C128" t="s">
-        <v>100</v>
-      </c>
-      <c r="D128" t="s">
-        <v>126</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>21330051920129</v>
-      </c>
-      <c r="C129" t="s">
-        <v>100</v>
-      </c>
-      <c r="D129" t="s">
-        <v>126</v>
-      </c>
-      <c r="E129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>21330051920130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>77</v>
-      </c>
-      <c r="C130" t="s">
-        <v>101</v>
-      </c>
-      <c r="D130" t="s">
-        <v>127</v>
-      </c>
-      <c r="E130" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>21330051920130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>77</v>
-      </c>
-      <c r="C131" t="s">
-        <v>101</v>
-      </c>
-      <c r="D131" t="s">
-        <v>127</v>
-      </c>
-      <c r="E131" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>21330051920130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C132" t="s">
-        <v>101</v>
-      </c>
-      <c r="D132" t="s">
-        <v>127</v>
-      </c>
-      <c r="E132" t="s">
-        <v>5</v>
-      </c>
-      <c r="F132" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>21330051920130</v>
-      </c>
-      <c r="B133" t="s">
-        <v>77</v>
-      </c>
-      <c r="C133" t="s">
-        <v>101</v>
-      </c>
-      <c r="D133" t="s">
-        <v>127</v>
-      </c>
-      <c r="E133" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>21330051920130</v>
-      </c>
-      <c r="B134" t="s">
-        <v>77</v>
-      </c>
-      <c r="C134" t="s">
-        <v>101</v>
-      </c>
-      <c r="D134" t="s">
-        <v>127</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>21330051920130</v>
-      </c>
-      <c r="B135" t="s">
-        <v>77</v>
-      </c>
-      <c r="C135" t="s">
-        <v>101</v>
-      </c>
-      <c r="D135" t="s">
-        <v>127</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>21330051920131</v>
-      </c>
-      <c r="B136" t="s">
-        <v>78</v>
-      </c>
-      <c r="C136" t="s">
-        <v>102</v>
-      </c>
-      <c r="D136" t="s">
-        <v>128</v>
-      </c>
-      <c r="E136" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>21330051920131</v>
-      </c>
-      <c r="B137" t="s">
-        <v>78</v>
-      </c>
-      <c r="C137" t="s">
-        <v>102</v>
-      </c>
-      <c r="D137" t="s">
-        <v>128</v>
-      </c>
-      <c r="E137" t="s">
-        <v>7</v>
-      </c>
-      <c r="F137" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>21330051920131</v>
-      </c>
-      <c r="B138" t="s">
-        <v>78</v>
-      </c>
-      <c r="C138" t="s">
-        <v>102</v>
-      </c>
-      <c r="D138" t="s">
-        <v>128</v>
-      </c>
-      <c r="E138" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>21330051920131</v>
-      </c>
-      <c r="B139" t="s">
-        <v>78</v>
-      </c>
-      <c r="C139" t="s">
-        <v>102</v>
-      </c>
-      <c r="D139" t="s">
-        <v>128</v>
-      </c>
-      <c r="E139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>21330051920131</v>
-      </c>
-      <c r="B140" t="s">
-        <v>78</v>
-      </c>
-      <c r="C140" t="s">
-        <v>102</v>
-      </c>
-      <c r="D140" t="s">
-        <v>128</v>
-      </c>
-      <c r="E140" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>21330051920131</v>
-      </c>
-      <c r="B141" t="s">
-        <v>78</v>
-      </c>
-      <c r="C141" t="s">
-        <v>102</v>
-      </c>
-      <c r="D141" t="s">
-        <v>128</v>
-      </c>
-      <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>18330051920377</v>
-      </c>
-      <c r="B142" t="s">
-        <v>79</v>
-      </c>
-      <c r="C142" t="s">
-        <v>103</v>
-      </c>
-      <c r="D142" t="s">
-        <v>129</v>
-      </c>
-      <c r="E142" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>18330051920377</v>
-      </c>
-      <c r="B143" t="s">
-        <v>79</v>
-      </c>
-      <c r="C143" t="s">
-        <v>103</v>
-      </c>
-      <c r="D143" t="s">
-        <v>129</v>
-      </c>
-      <c r="E143" t="s">
-        <v>7</v>
-      </c>
-      <c r="F143" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>18330051920377</v>
-      </c>
-      <c r="B144" t="s">
-        <v>79</v>
-      </c>
-      <c r="C144" t="s">
-        <v>103</v>
-      </c>
-      <c r="D144" t="s">
-        <v>129</v>
-      </c>
-      <c r="E144" t="s">
-        <v>5</v>
-      </c>
-      <c r="F144" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>18330051920377</v>
-      </c>
-      <c r="B145" t="s">
-        <v>79</v>
-      </c>
-      <c r="C145" t="s">
-        <v>103</v>
-      </c>
-      <c r="D145" t="s">
-        <v>129</v>
-      </c>
-      <c r="E145" t="s">
-        <v>6</v>
-      </c>
-      <c r="F145" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>18330051920377</v>
-      </c>
-      <c r="B146" t="s">
-        <v>79</v>
-      </c>
-      <c r="C146" t="s">
-        <v>103</v>
-      </c>
-      <c r="D146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>18330051920377</v>
-      </c>
-      <c r="B147" t="s">
-        <v>79</v>
-      </c>
-      <c r="C147" t="s">
-        <v>103</v>
-      </c>
-      <c r="D147" t="s">
-        <v>129</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>21330051920132</v>
-      </c>
-      <c r="B148" t="s">
-        <v>80</v>
-      </c>
-      <c r="C148" t="s">
-        <v>104</v>
-      </c>
-      <c r="D148" t="s">
-        <v>130</v>
-      </c>
-      <c r="E148" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>21330051920132</v>
-      </c>
-      <c r="B149" t="s">
-        <v>80</v>
-      </c>
-      <c r="C149" t="s">
-        <v>104</v>
-      </c>
-      <c r="D149" t="s">
-        <v>130</v>
-      </c>
-      <c r="E149" t="s">
-        <v>7</v>
-      </c>
-      <c r="F149" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>21330051920132</v>
-      </c>
-      <c r="B150" t="s">
-        <v>80</v>
-      </c>
-      <c r="C150" t="s">
-        <v>104</v>
-      </c>
-      <c r="D150" t="s">
-        <v>130</v>
-      </c>
-      <c r="E150" t="s">
-        <v>5</v>
-      </c>
-      <c r="F150" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>21330051920132</v>
-      </c>
-      <c r="B151" t="s">
-        <v>80</v>
-      </c>
-      <c r="C151" t="s">
-        <v>104</v>
-      </c>
-      <c r="D151" t="s">
-        <v>130</v>
-      </c>
-      <c r="E151" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>21330051920132</v>
-      </c>
-      <c r="B152" t="s">
-        <v>80</v>
-      </c>
-      <c r="C152" t="s">
-        <v>104</v>
-      </c>
-      <c r="D152" t="s">
-        <v>130</v>
-      </c>
-      <c r="E152" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>21330051920132</v>
-      </c>
-      <c r="B153" t="s">
-        <v>80</v>
-      </c>
-      <c r="C153" t="s">
-        <v>104</v>
-      </c>
-      <c r="D153" t="s">
-        <v>130</v>
-      </c>
-      <c r="E153" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>81</v>
-      </c>
-      <c r="C154" t="s">
-        <v>60</v>
-      </c>
-      <c r="D154" t="s">
-        <v>131</v>
-      </c>
-      <c r="E154" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920152</v>
-      </c>
-      <c r="B155" t="s">
-        <v>81</v>
-      </c>
-      <c r="C155" t="s">
-        <v>60</v>
-      </c>
-      <c r="D155" t="s">
-        <v>131</v>
-      </c>
-      <c r="E155" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920152</v>
-      </c>
-      <c r="B156" t="s">
-        <v>81</v>
-      </c>
-      <c r="C156" t="s">
-        <v>60</v>
-      </c>
-      <c r="D156" t="s">
-        <v>131</v>
-      </c>
-      <c r="E156" t="s">
-        <v>5</v>
-      </c>
-      <c r="F156" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920152</v>
-      </c>
-      <c r="B157" t="s">
-        <v>81</v>
-      </c>
-      <c r="C157" t="s">
-        <v>60</v>
-      </c>
-      <c r="D157" t="s">
-        <v>131</v>
-      </c>
-      <c r="E157" t="s">
-        <v>6</v>
-      </c>
-      <c r="F157" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920152</v>
-      </c>
-      <c r="B158" t="s">
-        <v>81</v>
-      </c>
-      <c r="C158" t="s">
-        <v>60</v>
-      </c>
-      <c r="D158" t="s">
-        <v>131</v>
-      </c>
-      <c r="E158" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920152</v>
-      </c>
-      <c r="B159" t="s">
-        <v>81</v>
-      </c>
-      <c r="C159" t="s">
-        <v>60</v>
-      </c>
-      <c r="D159" t="s">
-        <v>131</v>
-      </c>
-      <c r="E159" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>21330051920133</v>
-      </c>
-      <c r="B160" t="s">
-        <v>82</v>
-      </c>
-      <c r="C160" t="s">
-        <v>75</v>
-      </c>
-      <c r="D160" t="s">
-        <v>132</v>
-      </c>
-      <c r="E160" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>21330051920133</v>
-      </c>
-      <c r="B161" t="s">
-        <v>82</v>
-      </c>
-      <c r="C161" t="s">
-        <v>75</v>
-      </c>
-      <c r="D161" t="s">
-        <v>132</v>
-      </c>
-      <c r="E161" t="s">
-        <v>7</v>
-      </c>
-      <c r="F161" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>21330051920133</v>
-      </c>
-      <c r="B162" t="s">
-        <v>82</v>
-      </c>
-      <c r="C162" t="s">
-        <v>75</v>
-      </c>
-      <c r="D162" t="s">
-        <v>132</v>
-      </c>
-      <c r="E162" t="s">
-        <v>5</v>
-      </c>
-      <c r="F162" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>21330051920133</v>
-      </c>
-      <c r="B163" t="s">
-        <v>82</v>
-      </c>
-      <c r="C163" t="s">
-        <v>75</v>
-      </c>
-      <c r="D163" t="s">
-        <v>132</v>
-      </c>
-      <c r="E163" t="s">
-        <v>6</v>
-      </c>
-      <c r="F163" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>21330051920133</v>
-      </c>
-      <c r="B164" t="s">
-        <v>82</v>
-      </c>
-      <c r="C164" t="s">
-        <v>75</v>
-      </c>
-      <c r="D164" t="s">
-        <v>132</v>
-      </c>
-      <c r="E164" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>21330051920133</v>
-      </c>
-      <c r="B165" t="s">
-        <v>82</v>
-      </c>
-      <c r="C165" t="s">
-        <v>75</v>
-      </c>
-      <c r="D165" t="s">
-        <v>132</v>
-      </c>
-      <c r="E165" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>21330051920134</v>
-      </c>
-      <c r="B166" t="s">
-        <v>83</v>
-      </c>
-      <c r="C166" t="s">
-        <v>105</v>
-      </c>
-      <c r="D166" t="s">
-        <v>133</v>
-      </c>
-      <c r="E166" t="s">
-        <v>8</v>
-      </c>
-      <c r="F166" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>21330051920134</v>
-      </c>
-      <c r="B167" t="s">
-        <v>83</v>
-      </c>
-      <c r="C167" t="s">
-        <v>105</v>
-      </c>
-      <c r="D167" t="s">
-        <v>133</v>
-      </c>
-      <c r="E167" t="s">
-        <v>7</v>
-      </c>
-      <c r="F167" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>21330051920134</v>
-      </c>
-      <c r="B168" t="s">
-        <v>83</v>
-      </c>
-      <c r="C168" t="s">
-        <v>105</v>
-      </c>
-      <c r="D168" t="s">
-        <v>133</v>
-      </c>
-      <c r="E168" t="s">
-        <v>5</v>
-      </c>
-      <c r="F168" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>21330051920134</v>
-      </c>
-      <c r="B169" t="s">
-        <v>83</v>
-      </c>
-      <c r="C169" t="s">
-        <v>105</v>
-      </c>
-      <c r="D169" t="s">
-        <v>133</v>
-      </c>
-      <c r="E169" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>21330051920134</v>
-      </c>
-      <c r="B170" t="s">
-        <v>83</v>
-      </c>
-      <c r="C170" t="s">
-        <v>105</v>
-      </c>
-      <c r="D170" t="s">
-        <v>133</v>
-      </c>
-      <c r="E170" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>21330051920134</v>
-      </c>
-      <c r="B171" t="s">
-        <v>83</v>
-      </c>
-      <c r="C171" t="s">
-        <v>105</v>
-      </c>
-      <c r="D171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E171" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6718,486 +4156,486 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>21330051920111</v>
+        <v>21330051920391</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21330051920112</v>
+        <v>21330051920128</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>21330051920113</v>
+        <v>20330051920152</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>21330051920114</v>
+        <v>21330051920127</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>21330051920115</v>
+        <v>21330051920134</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>21330051920116</v>
+        <v>21330051920120</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>21330051920117</v>
+        <v>21330051920133</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>21330051920118</v>
+        <v>21330051920117</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920119</v>
+        <v>21330051920115</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>21330051920120</v>
+        <v>21330051920121</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920121</v>
+        <v>21330051920122</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920391</v>
+        <v>21330051920126</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920122</v>
+        <v>20330051920275</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920123</v>
+        <v>21330051920111</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920124</v>
+        <v>21330051920112</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21330051920125</v>
+        <v>21330051920113</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920126</v>
+        <v>21330051920114</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920127</v>
+        <v>21330051920116</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920128</v>
+        <v>21330051920118</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920129</v>
+        <v>21330051920119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21330051920130</v>
+        <v>21330051920123</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21330051920131</v>
+        <v>21330051920124</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920377</v>
+        <v>21330051920125</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21330051920132</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
+        <v>21330051920129</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920152</v>
+        <v>21330051920130</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21330051920133</v>
+        <v>21330051920131</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21330051920134</v>
+        <v>18330051920377</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920275</v>
+        <v>21330051920132</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7245,13 +4683,13 @@
         <v>21330051920121</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -7268,13 +4706,13 @@
         <v>21330051920121</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -7291,13 +4729,13 @@
         <v>21330051920115</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -7314,13 +4752,13 @@
         <v>21330051920118</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -7337,13 +4775,13 @@
         <v>21330051920122</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -7360,13 +4798,13 @@
         <v>21330051920126</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -7383,13 +4821,13 @@
         <v>20330051920275</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
